--- a/data/trans_dic/P24_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de estómago con bastante o mucha frecuencia</t>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20,31%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>22,83%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 11,57</t>
+          <t>0,0; 15,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,73</t>
+          <t>0,0; 15,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 19,7</t>
+          <t>5,25; 30,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 21,04</t>
+          <t>2,11; 24,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,59; 24,0</t>
+          <t>2,1; 27,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 26,18</t>
+          <t>14,41; 40,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 27,37</t>
+          <t>16,78; 44,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 20,53</t>
+          <t>13,42; 37,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,01; 15,71</t>
+          <t>9,93; 31,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 15,69</t>
+          <t>15,72; 54,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 21,63</t>
+          <t>8,59; 25,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 17,59</t>
+          <t>10,34; 27,11</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>12,66; 30,64</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,67; 23,41</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>12,59; 41,22</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,97%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18,48%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 11,96</t>
+          <t>2,38; 9,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 17,54</t>
+          <t>5,69; 29,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 15,32</t>
+          <t>5,93; 15,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,13</t>
+          <t>2,55; 9,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 12,87</t>
+          <t>10,91; 34,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 18,13</t>
+          <t>4,74; 12,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,58; 18,48</t>
+          <t>10,29; 21,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 19,02</t>
+          <t>14,15; 25,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,67</t>
+          <t>11,89; 23,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 15,41</t>
+          <t>12,57; 25,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 15,59</t>
+          <t>4,31; 9,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,51</t>
+          <t>9,73; 21,81</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 18,41</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 15,11</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>13,75; 26,6</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>9,18%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,74%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 11,28</t>
+          <t>2,74; 11,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 9,65</t>
+          <t>3,12; 12,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,45</t>
+          <t>3,7; 12,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,35</t>
+          <t>0,0; 5,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 11,14</t>
+          <t>1,9; 8,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,15</t>
+          <t>3,08; 11,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,3; 18,44</t>
+          <t>6,42; 17,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,38; 18,32</t>
+          <t>8,59; 19,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,82</t>
+          <t>6,21; 15,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,28</t>
+          <t>7,65; 20,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 13,18</t>
+          <t>3,71; 9,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,16</t>
+          <t>6,22; 13,37</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 15,19</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 9,49</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 13,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 12,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 16,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,41; 17,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 16,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 14,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,47%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,09%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,59%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 8,11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 19,98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 13,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 7,72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8,39; 23,4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 12,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 19,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 21,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11,1; 18,0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,92; 25,01</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 9,55</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 16,65</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11,29; 16,68</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 11,98</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 20,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6940</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17360</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11756</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22851</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28755</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39282</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27522</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>65373</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>33480</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46222</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>44882</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>32755</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>88224</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16362</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19652</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5538; 32591</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2414; 27514</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3735; 49554</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16978; 47494</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23902; 63347</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15495; 42830</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12151; 38129</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32806; 114300</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18997; 56149</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28054; 73553</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>27968; 67699</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18136; 55359</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>48639; 159249</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17911</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54786</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36783</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21569</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>97506</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31519</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69730</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>72754</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>63385</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>89423</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>49430</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>124515</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>109536</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>84954</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>186930</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8709; 36264</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24424; 125892</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22305; 59588</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10173; 38982</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>56391; 180295</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18507; 49852</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>47778; 100754</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53429; 97878</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44613; 86817</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>62173; 124983</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>32643; 71609</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>87023; 194929</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>82459; 138766</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>62636; 117054</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>139056; 269056</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17994</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22682</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20697</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4024</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16003</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21724</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>47188</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46633</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33612</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>50213</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>39718</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>69870</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>67330</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>37636</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>66216</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7844; 33750</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10370; 41192</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10454; 36062</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14105</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6706; 31554</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11074; 39633</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27510; 75056</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29599; 67787</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20343; 50457</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30546; 83095</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23980; 60984</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>47356; 101778</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>48221; 95256</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>23919; 57221</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>41589; 104081</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>40631</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>84408</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>74840</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37349</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>136361</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>81998</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>156199</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>146909</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>117996</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>205010</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>122628</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>240607</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>221749</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>155345</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>341370</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24577; 61232</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>53176; 178093</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>51267; 104212</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20531; 60931</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>87852; 245147</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>57135; 110322</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>120193; 202427</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>117706; 183121</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>91568; 148514</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>153502; 275894</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>90976; 155093</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>190931; 320711</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>180833; 267157</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>122529; 193376</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>268964; 446590</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
